--- a/incidents_report.xlsx
+++ b/incidents_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33e8d1ee-9564-4cb4-beb5-1fa6f68d3151</t>
+          <t>ec71a970-4de7-4f2d-a3e8-2dee5615bb02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INC-003</t>
+          <t>INC-016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>пожар</t>
+          <t>травма</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,44 +496,44 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>на рассмотрении</t>
+          <t>в работе</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>kuril sijku</t>
+          <t>Cat bites me</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dokuril</t>
+          <t>Bite in response</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bolvan</t>
+          <t>Petr Petrov</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4086da67-d9dd-470f-8590-3609d5b7a0be</t>
+          <t>33e8d1ee-9564-4cb4-beb5-1fa6f68d3151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INC12345</t>
+          <t>INC-003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>авария</t>
+          <t>пожар</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,44 +543,44 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>в работе</t>
+          <t>на рассмотрении</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>I step on the cat</t>
+          <t>kuril sijku</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pat a cat</t>
+          <t>dokuril</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ivan Ivanov</t>
+          <t>Bolvan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>d9e642e8-9378-40fc-8084-f23b4a349ae7</t>
+          <t>4086da67-d9dd-470f-8590-3609d5b7a0be</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INC-017</t>
+          <t>INC12345</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>травма</t>
+          <t>авария</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,30 +595,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cat bites me</t>
+          <t>I step on the cat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Pat a cat</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Ivan Ivanov</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d740fd1f-0da8-4fb5-8487-0973cf9ca3f1</t>
+          <t>d9e642e8-9378-40fc-8084-f23b4a349ae7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INC-018</t>
+          <t>INC-017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -641,27 +645,27 @@
           <t>Cat bites me</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bite in response</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>f0a6e94d-7b80-4850-9d1a-ca99551fdf78</t>
+          <t>d740fd1f-0da8-4fb5-8487-0973cf9ca3f1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INC-044</t>
+          <t>INC-018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,34 +680,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>завершено</t>
+          <t>в работе</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cat bites me again and again</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
+          <t>Cat bites me</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Petr Petrov</t>
+          <t>Admin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>aead071f-e993-439b-a828-ad1853a64f09</t>
+          <t>f0a6e94d-7b80-4850-9d1a-ca99551fdf78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INC-006</t>
+          <t>INC-044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -718,17 +718,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IT Company</t>
+          <t>Default Unit</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>в работе</t>
+          <t>завершено</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cat bites me</t>
+          <t>Cat bites me again and again</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Prostak</t>
+          <t>Petr Petrov</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>авария</t>
+          <t>травма</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -770,39 +770,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>завершено</t>
+          <t>в работе</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WHAAT?!</t>
+          <t>WHAAT?! Seriously?!</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Just Chill</t>
+          <t>Just Chill hah</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tolikov</t>
+          <t>Tolikov Tolik</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0c840ff2-7cb2-46b8-880f-0d9e94d3df6b</t>
+          <t>aead071f-e993-439b-a828-ad1853a64f09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INC-001</t>
+          <t>INC-006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Barmaley</t>
+          <t>Prostak</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>354f968d-50e4-4a49-978f-104c4f215db4</t>
+          <t>0c840ff2-7cb2-46b8-880f-0d9e94d3df6b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INC-013</t>
+          <t>INC-001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Computer Room</t>
+          <t>IT Company</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -879,29 +879,29 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Me</t>
+          <t>Barmaley</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>531098d7-cc35-48e5-91f8-bb74432faf8d</t>
+          <t>c695d2f8-35ee-4dd4-ac3c-bda0b7176300</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INC-009</t>
+          <t>INC-015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>пожар</t>
+          <t>травма</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kuril sijku s drugom</t>
+          <t>Cat bites me</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ubejal</t>
+          <t>Bite in response</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Dimon Dimonov</t>
+          <t>Petr Petrov</t>
         </is>
       </c>
     </row>
@@ -980,22 +980,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>c695d2f8-35ee-4dd4-ac3c-bda0b7176300</t>
+          <t>354f968d-50e4-4a49-978f-104c4f215db4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inc-011</t>
+          <t>INC-013</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>инцидент</t>
+          <t>травма</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1005,22 +1005,69 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>в работе</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cat bites me</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bite in response</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>725dbf47-38c8-4304-9519-d692e098fad6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INC-021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>травма</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IT Jerks</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>завершено</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>I laugh</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hahahah</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Dimon</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ti otkazalsya est' mamin sup</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Postoyal v uglu</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Tolik Tolikov</t>
         </is>
       </c>
     </row>

--- a/incidents_report.xlsx
+++ b/incidents_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE6F1"/>
+        <bgColor rgb="00DCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +52,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,349 +438,158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Параметры фильтрации</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Период с</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>по</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25T00:00:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Подразделение</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Все</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>травма</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>в работе</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Номер инцидента</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Тип</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Подразделение</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>Описание</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>Предпринятые меры</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>Ответственный</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ec71a970-4de7-4f2d-a3e8-2dee5615bb02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>INC-016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Cat bites me</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Petr Petrov</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>33e8d1ee-9564-4cb4-beb5-1fa6f68d3151</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>INC-003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>пожар</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>на рассмотрении</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kuril sijku</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>dokuril</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Bolvan</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4086da67-d9dd-470f-8590-3609d5b7a0be</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>INC12345</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>авария</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>I step on the cat</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Pat a cat</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Ivan Ivanov</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>d9e642e8-9378-40fc-8084-f23b4a349ae7</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>INC-017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-07-07</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Cat bites me</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>d740fd1f-0da8-4fb5-8487-0973cf9ca3f1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>INC-018</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Cat bites me</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>f0a6e94d-7b80-4850-9d1a-ca99551fdf78</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>INC-044</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Default Unit</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>завершено</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Cat bites me again and again</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Petr Petrov</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>e40528a9-65cc-41dc-9c40-1177194a056c</t>
+          <t>0c840ff2-7cb2-46b8-880f-0d9e94d3df6b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INC-002</t>
+          <t>INC-001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -775,34 +609,34 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WHAAT?! Seriously?!</t>
+          <t>Cat bites me</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Just Chill hah</t>
+          <t>Bite in response</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tolikov Tolik</t>
+          <t>Barmaley</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aead071f-e993-439b-a828-ad1853a64f09</t>
+          <t>354f968d-50e4-4a49-978f-104c4f215db4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INC-006</t>
+          <t>INC-013</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -812,7 +646,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IT Company</t>
+          <t>Computer Room</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -832,24 +666,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Prostak</t>
+          <t>Me</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0c840ff2-7cb2-46b8-880f-0d9e94d3df6b</t>
+          <t>ec71a970-4de7-4f2d-a3e8-2dee5615bb02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INC-001</t>
+          <t>INC-016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -859,7 +693,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IT Company</t>
+          <t>Default Unit</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -879,195 +713,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Barmaley</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>c695d2f8-35ee-4dd4-ac3c-bda0b7176300</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INC-015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Computer Room</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Cat bites me</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>Petr Petrov</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2bec6b32-7845-4013-b7c1-bab324d1fbe0</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>inc-010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-07-02</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Computer Room</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>на рассмотрении</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Cat haha</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Nothing, he is cute :3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Tolikov</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>354f968d-50e4-4a49-978f-104c4f215db4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>INC-013</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Computer Room</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>в работе</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Cat bites me</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Bite in response</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Me</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>725dbf47-38c8-4304-9519-d692e098fad6</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INC-021</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>травма</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>IT Jerks</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>завершено</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Ti otkazalsya est' mamin sup</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Postoyal v uglu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Tolik Tolikov</t>
         </is>
       </c>
     </row>
